--- a/chude5_Excel/buoi11/de4.xlsx
+++ b/chude5_Excel/buoi11/de4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72169BB8-6814-4863-932D-E5C500B95182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184BE416-04D4-492F-A880-30587F89F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8A80F53-FA6D-4086-B277-514E12D4385D}"/>
   </bookViews>
@@ -319,14 +319,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,6 +343,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DFC53C-289C-14B3-B9F0-1864F36DB34C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="3733800"/>
+          <a:ext cx="6172200" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Yêu cầu tính:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) STT căn cứ vào 3 ký tự cuối của Mã hàng và cần chuyển định dạng thành dữ liệu kiểu số </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>đ) Tên hàng căn cứ vào ký tự thứ 3 và 4 của Mã hàng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> và đối chiếu với Bảng 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1đ) Đơn giá căn cứ vào Tên hàng và đối chiếu với Bảng 2: Nếu ký tự đầu của Mã hàng là 1 thì Đơn giá được chọn từ Đơn giá 1; Còn lại chọn Đơn giá 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Thành tiền = Số lượng * Đơn giá. Tuy nhiên, số lượng &gt; 20 thì được giảm 5% của thành tiền.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sắp xếp Bảng 1 theo thứ tự tăng dần của Tên hàng, nếu trùng tên hàng thì xếp giảm dần theo Thành tiền. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Tại cột Thành tiền, sử dụng quick analysis để tạo PivotTable thể hiện tổng Thành tiền của từng loại Tên hàng.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tạo PivotChart ở dạng column cho PivotTable vừa tạo.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BCEB1-9746-4703-8477-868760C8EC44}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,12 +1093,12 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -851,10 +1135,10 @@
       <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>1000000</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>1200000</v>
       </c>
       <c r="J11" s="14"/>
@@ -921,5 +1205,6 @@
     <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>